--- a/litter_traps/litter_scans.xlsx
+++ b/litter_traps/litter_scans.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27106"/>
+  <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ewan/projects/ah_data/litter_traps/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16000" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Oak" sheetId="1" r:id="rId1"/>
@@ -14,12 +19,20 @@
     <sheet name="Willow" sheetId="5" r:id="rId5"/>
     <sheet name="Beech" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="10">
   <si>
     <t>Start date</t>
   </si>
@@ -47,12 +60,15 @@
   <si>
     <t>Weight (g)</t>
   </si>
+  <si>
+    <t>m2/g</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -91,6 +107,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -137,12 +158,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -169,14 +190,15 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -203,6 +225,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -378,22 +401,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" customWidth="1"/>
+    <col min="1" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -421,8 +444,11 @@
       <c r="I1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>42306</v>
       </c>
@@ -450,6 +476,10 @@
       </c>
       <c r="I2">
         <v>4</v>
+      </c>
+      <c r="J2">
+        <f>G2*0.0001/H2</f>
+        <v>1.7929292929292927E-2</v>
       </c>
     </row>
   </sheetData>
@@ -459,22 +489,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.140625" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" customWidth="1"/>
+    <col min="2" max="2" width="11.5" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" customWidth="1"/>
+    <col min="8" max="8" width="10.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -502,8 +532,11 @@
       <c r="I1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>42306</v>
       </c>
@@ -531,6 +564,10 @@
       </c>
       <c r="I2">
         <v>4</v>
+      </c>
+      <c r="J2">
+        <f>G2*0.0001/H2</f>
+        <v>3.8287037037037043E-2</v>
       </c>
     </row>
   </sheetData>
@@ -539,23 +576,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" customWidth="1"/>
+    <col min="1" max="1" width="11.5" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" customWidth="1"/>
+    <col min="4" max="4" width="13.1640625" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -583,8 +620,11 @@
       <c r="I1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>42306</v>
       </c>
@@ -612,6 +652,10 @@
       </c>
       <c r="I2">
         <v>4</v>
+      </c>
+      <c r="J2">
+        <f>G2*0.0001/H2</f>
+        <v>2.388888888888889E-2</v>
       </c>
     </row>
   </sheetData>
@@ -620,23 +664,23 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.140625" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" customWidth="1"/>
+    <col min="3" max="3" width="10.5" customWidth="1"/>
+    <col min="4" max="4" width="12.5" customWidth="1"/>
+    <col min="8" max="8" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -664,8 +708,11 @@
       <c r="I1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>42306</v>
       </c>
@@ -693,6 +740,10 @@
       </c>
       <c r="I2">
         <v>4</v>
+      </c>
+      <c r="J2">
+        <f>G2*0.0001/H2</f>
+        <v>1.7745098039215687E-2</v>
       </c>
     </row>
   </sheetData>
@@ -701,23 +752,23 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1"/>
-    <col min="8" max="8" width="10.42578125" customWidth="1"/>
+    <col min="1" max="1" width="10.5" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.5" customWidth="1"/>
+    <col min="8" max="8" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -745,8 +796,11 @@
       <c r="I1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>42306</v>
       </c>
@@ -774,6 +828,10 @@
       </c>
       <c r="I2">
         <v>3</v>
+      </c>
+      <c r="J2">
+        <f>G2*0.0001/H2</f>
+        <v>2.0075757575757577E-2</v>
       </c>
     </row>
   </sheetData>
@@ -782,23 +840,23 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" customWidth="1"/>
+    <col min="1" max="1" width="11.5" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -826,8 +884,11 @@
       <c r="I1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>42306</v>
       </c>
@@ -855,6 +916,10 @@
       </c>
       <c r="I2">
         <v>3</v>
+      </c>
+      <c r="J2">
+        <f>G2*0.0001/H2</f>
+        <v>1.8086419753086419E-2</v>
       </c>
     </row>
   </sheetData>

--- a/litter_traps/litter_scans.xlsx
+++ b/litter_traps/litter_scans.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27106"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27309"/>
   <workbookPr filterPrivacy="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16000" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Oak" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
     <t>Weight (g)</t>
   </si>
   <si>
-    <t>m2/g</t>
+    <t>g/m2</t>
   </si>
 </sst>
 </file>
@@ -478,8 +478,8 @@
         <v>4</v>
       </c>
       <c r="J2">
-        <f>G2*0.0001/H2</f>
-        <v>1.7929292929292927E-2</v>
+        <f>H2/(G2*0.0001)</f>
+        <v>55.774647887323951</v>
       </c>
     </row>
   </sheetData>
@@ -493,7 +493,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -566,8 +566,8 @@
         <v>4</v>
       </c>
       <c r="J2">
-        <f>G2*0.0001/H2</f>
-        <v>3.8287037037037043E-2</v>
+        <f>H2/(G2*0.0001)</f>
+        <v>26.118500604594917</v>
       </c>
     </row>
   </sheetData>
@@ -580,7 +580,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -654,8 +654,8 @@
         <v>4</v>
       </c>
       <c r="J2">
-        <f>G2*0.0001/H2</f>
-        <v>2.388888888888889E-2</v>
+        <f>H2/(G2*0.0001)</f>
+        <v>41.860465116279066</v>
       </c>
     </row>
   </sheetData>
@@ -667,8 +667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -742,8 +742,8 @@
         <v>4</v>
       </c>
       <c r="J2">
-        <f>G2*0.0001/H2</f>
-        <v>1.7745098039215687E-2</v>
+        <f>H2/(G2*0.0001)</f>
+        <v>56.353591160220994</v>
       </c>
     </row>
   </sheetData>
@@ -755,8 +755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -766,6 +766,7 @@
     <col min="3" max="3" width="10.6640625" customWidth="1"/>
     <col min="4" max="4" width="12.5" customWidth="1"/>
     <col min="8" max="8" width="10.5" customWidth="1"/>
+    <col min="10" max="10" width="26.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
@@ -829,9 +830,9 @@
       <c r="I2">
         <v>3</v>
       </c>
-      <c r="J2">
-        <f>G2*0.0001/H2</f>
-        <v>2.0075757575757577E-2</v>
+      <c r="J2" s="2">
+        <f>H2/(G2*0.0001)</f>
+        <v>49.811320754716981</v>
       </c>
     </row>
   </sheetData>
@@ -844,7 +845,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -918,8 +919,8 @@
         <v>3</v>
       </c>
       <c r="J2">
-        <f>G2*0.0001/H2</f>
-        <v>1.8086419753086419E-2</v>
+        <f>H2/(G2*0.0001)</f>
+        <v>55.290102389078498</v>
       </c>
     </row>
   </sheetData>
